--- a/data/trans_orig/P1802_2016_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1802_2016_2023-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>60237</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>46709</v>
+        <v>48233</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>74775</v>
+        <v>77789</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2050529068866487</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1590026012693639</v>
+        <v>0.1641917722651734</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2545432214245665</v>
+        <v>0.2648033189660224</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>71</v>
@@ -763,19 +763,19 @@
         <v>73686</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>59564</v>
+        <v>59316</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>89379</v>
+        <v>89925</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2552297858297227</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2063154578905042</v>
+        <v>0.2054572506445481</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3095883116224674</v>
+        <v>0.3114794068094657</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>127</v>
@@ -784,19 +784,19 @@
         <v>133922</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>113038</v>
+        <v>114054</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>155107</v>
+        <v>156503</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2299234833638466</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1940685587261688</v>
+        <v>0.1958124174118276</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2662944421438348</v>
+        <v>0.2686915301434913</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>233524</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>218986</v>
+        <v>215972</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>247052</v>
+        <v>245528</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7949470931133513</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7454567785754334</v>
+        <v>0.7351966810339782</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8409973987306359</v>
+        <v>0.8358082277348269</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>206</v>
@@ -834,19 +834,19 @@
         <v>215017</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>199324</v>
+        <v>198778</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>229139</v>
+        <v>229387</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7447702141702773</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6904116883775326</v>
+        <v>0.6885205931905342</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7936845421094958</v>
+        <v>0.7945427493554519</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>416</v>
@@ -855,19 +855,19 @@
         <v>448542</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>427357</v>
+        <v>425961</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>469426</v>
+        <v>468410</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7700765166361534</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7337055578561652</v>
+        <v>0.7313084698565089</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8059314412738314</v>
+        <v>0.8041875825881729</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>78023</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>62612</v>
+        <v>62632</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>96698</v>
+        <v>95393</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1552466850390931</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1245824317470777</v>
+        <v>0.1246220667104406</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.19240521204931</v>
+        <v>0.1898083632342272</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>93</v>
@@ -980,19 +980,19 @@
         <v>101589</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>84976</v>
+        <v>83625</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>123587</v>
+        <v>120722</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1942122320102407</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1624510985144656</v>
+        <v>0.1598687310239521</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2362664004358956</v>
+        <v>0.2307880052193464</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>164</v>
@@ -1001,19 +1001,19 @@
         <v>179612</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>152901</v>
+        <v>154464</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>205522</v>
+        <v>205579</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1751190275888159</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1490762539074936</v>
+        <v>0.150599765751078</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2003806334995624</v>
+        <v>0.2004360586449855</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>424552</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>405877</v>
+        <v>407182</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>439963</v>
+        <v>439943</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8447533149609069</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.80759478795069</v>
+        <v>0.8101916367657728</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8754175682529223</v>
+        <v>0.8753779332895594</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>391</v>
@@ -1051,19 +1051,19 @@
         <v>421495</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>399497</v>
+        <v>402362</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>438108</v>
+        <v>439459</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8057877679897593</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7637335995641047</v>
+        <v>0.7692119947806536</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8375489014855344</v>
+        <v>0.840131268976048</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>795</v>
@@ -1072,19 +1072,19 @@
         <v>846047</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>820137</v>
+        <v>820080</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>872758</v>
+        <v>871195</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8248809724111841</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7996193665004382</v>
+        <v>0.7995639413550146</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8509237460925065</v>
+        <v>0.849400234248922</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>23845</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15735</v>
+        <v>16136</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33417</v>
+        <v>34255</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07485099008338864</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04939229783169597</v>
+        <v>0.05065301360171322</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1048997166167067</v>
+        <v>0.1075302079762319</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -1197,19 +1197,19 @@
         <v>33364</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23244</v>
+        <v>23766</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46884</v>
+        <v>46381</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0992069852505605</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06911519541999618</v>
+        <v>0.07066573660366415</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1394082201950767</v>
+        <v>0.1379130006151124</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -1218,19 +1218,19 @@
         <v>57209</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>44611</v>
+        <v>43702</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>72796</v>
+        <v>72634</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08735895410748443</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06812094866888871</v>
+        <v>0.06673367049985421</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1111610686175012</v>
+        <v>0.1109136678763972</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>294720</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>285148</v>
+        <v>284310</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>302830</v>
+        <v>302429</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9251490099166114</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8951002833832933</v>
+        <v>0.8924697920237681</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.950607702168304</v>
+        <v>0.9493469863982867</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>300</v>
@@ -1268,19 +1268,19 @@
         <v>302945</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>289425</v>
+        <v>289928</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>313065</v>
+        <v>312543</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9007930147494395</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8605917798049225</v>
+        <v>0.8620869993848876</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9308848045800037</v>
+        <v>0.9293342633963358</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>610</v>
@@ -1289,19 +1289,19 @@
         <v>597665</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>582078</v>
+        <v>582240</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>610263</v>
+        <v>611172</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9126410458925156</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8888389313824988</v>
+        <v>0.8890863321236028</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9318790513311114</v>
+        <v>0.9332663295001458</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>69817</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55692</v>
+        <v>55519</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>87427</v>
+        <v>86520</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1887131778100611</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1505345544656855</v>
+        <v>0.1500646646003001</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.236311340907674</v>
+        <v>0.2338610030608997</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -1414,19 +1414,19 @@
         <v>85676</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>70782</v>
+        <v>69719</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>104466</v>
+        <v>103305</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2212226282907042</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.182765116981427</v>
+        <v>0.1800196212913977</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.269739904637967</v>
+        <v>0.2667440989377131</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>144</v>
@@ -1435,19 +1435,19 @@
         <v>155493</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>134226</v>
+        <v>131325</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>180715</v>
+        <v>178237</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2053396650120038</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1772558321137108</v>
+        <v>0.1734243182678822</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2386479849456821</v>
+        <v>0.2353754549035715</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>300147</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>282537</v>
+        <v>283444</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>314272</v>
+        <v>314445</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.811286822189939</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.763688659092326</v>
+        <v>0.7661389969391</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8494654455343144</v>
+        <v>0.8499353353996998</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>278</v>
@@ -1485,19 +1485,19 @@
         <v>301607</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>282817</v>
+        <v>283978</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>316501</v>
+        <v>317564</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7787773717092958</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7302600953620328</v>
+        <v>0.7332559010622869</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8172348830185729</v>
+        <v>0.8199803787086021</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>568</v>
@@ -1506,19 +1506,19 @@
         <v>601754</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>576532</v>
+        <v>579010</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>623021</v>
+        <v>625922</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7946603349879963</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7613520150543179</v>
+        <v>0.7646245450964286</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8227441678862892</v>
+        <v>0.8265756817321178</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>39521</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29454</v>
+        <v>28999</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51146</v>
+        <v>51295</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1871059430403862</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1394443590953714</v>
+        <v>0.1372932666743718</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2421438066876228</v>
+        <v>0.2428522708975472</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>40</v>
@@ -1631,19 +1631,19 @@
         <v>40141</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30628</v>
+        <v>29672</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>53286</v>
+        <v>53362</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1836396663093675</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1401173506737607</v>
+        <v>0.1357445713497442</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2437755951427308</v>
+        <v>0.2441202680923912</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>79</v>
@@ -1652,19 +1652,19 @@
         <v>79662</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>65044</v>
+        <v>64639</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>96940</v>
+        <v>95867</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1853431023420449</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1513332712254276</v>
+        <v>0.1503896797941972</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2255437261573116</v>
+        <v>0.2230470641853791</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>171700</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>160075</v>
+        <v>159926</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>181767</v>
+        <v>182222</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8128940569596138</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7578561933123772</v>
+        <v>0.7571477291024529</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8605556409046287</v>
+        <v>0.8627067333256282</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>183</v>
@@ -1702,19 +1702,19 @@
         <v>178446</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>165301</v>
+        <v>165225</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>187959</v>
+        <v>188915</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8163603336906325</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7562244048572688</v>
+        <v>0.7558797319076089</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8598826493262391</v>
+        <v>0.8642554286502558</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>356</v>
@@ -1723,19 +1723,19 @@
         <v>350146</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>332868</v>
+        <v>333941</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>364764</v>
+        <v>365169</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8146568976579551</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7744562738426886</v>
+        <v>0.7769529358146209</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8486667287745725</v>
+        <v>0.849610320205803</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>35512</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25868</v>
+        <v>26240</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>47834</v>
+        <v>47795</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1349640767150989</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09831270567302537</v>
+        <v>0.0997252104242862</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1817924124863097</v>
+        <v>0.181643829944418</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>53</v>
@@ -1848,19 +1848,19 @@
         <v>55852</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>43886</v>
+        <v>43204</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>70943</v>
+        <v>70982</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2044986184410832</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1606877974750645</v>
+        <v>0.1581905919430652</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2597547928253802</v>
+        <v>0.2598969488771898</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>88</v>
@@ -1869,19 +1869,19 @@
         <v>91364</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>74078</v>
+        <v>74601</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>108844</v>
+        <v>108322</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1703791841997535</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1381440912350957</v>
+        <v>0.1391183177903243</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2029772974758747</v>
+        <v>0.2020045199955984</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>227611</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>215289</v>
+        <v>215328</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>237255</v>
+        <v>236883</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8650359232849011</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.81820758751369</v>
+        <v>0.8183561700555821</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9016872943269746</v>
+        <v>0.9002747895757139</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>210</v>
@@ -1919,19 +1919,19 @@
         <v>217263</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>202172</v>
+        <v>202133</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>229229</v>
+        <v>229911</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7955013815589168</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7402452071746198</v>
+        <v>0.7401030511228102</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8393122025249355</v>
+        <v>0.8418094080569348</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>434</v>
@@ -1940,19 +1940,19 @@
         <v>444874</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>427394</v>
+        <v>427916</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>462160</v>
+        <v>461637</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8296208158002466</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7970227025241252</v>
+        <v>0.7979954800044017</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8618559087649043</v>
+        <v>0.8608816822096759</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>67449</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>52823</v>
+        <v>54122</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>83448</v>
+        <v>86519</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1027306790704385</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08045475049141777</v>
+        <v>0.08243302888834066</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1270984949352888</v>
+        <v>0.1317767902843034</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>102</v>
@@ -2065,19 +2065,19 @@
         <v>114640</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>94654</v>
+        <v>92818</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>137214</v>
+        <v>134388</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.165834214958191</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1369231474162425</v>
+        <v>0.134267293872665</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1984890769918815</v>
+        <v>0.1944009170082652</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>163</v>
@@ -2086,19 +2086,19 @@
         <v>182089</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>158750</v>
+        <v>156072</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>207922</v>
+        <v>210387</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1350955795544831</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1177802945458181</v>
+        <v>0.1157932867162341</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1542614604829564</v>
+        <v>0.1560904498055704</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>589109</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>573110</v>
+        <v>570039</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>603735</v>
+        <v>602436</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8972693209295616</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8729015050647112</v>
+        <v>0.8682232097156951</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9195452495085822</v>
+        <v>0.9175669711116585</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>544</v>
@@ -2136,19 +2136,19 @@
         <v>576654</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>554080</v>
+        <v>556906</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>596640</v>
+        <v>598476</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.834165785041809</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8015109230081187</v>
+        <v>0.805599082991735</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8630768525837575</v>
+        <v>0.865732706127335</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1063</v>
@@ -2157,19 +2157,19 @@
         <v>1165763</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1139930</v>
+        <v>1137465</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1189102</v>
+        <v>1191780</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8649044204455169</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8457385395170437</v>
+        <v>0.8439095501944297</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8822197054541819</v>
+        <v>0.884206713283766</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>113203</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>94107</v>
+        <v>95380</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>134051</v>
+        <v>135410</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1453962988773896</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1208694325901042</v>
+        <v>0.1225045637658054</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1721729444534442</v>
+        <v>0.1739185283239975</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>146</v>
@@ -2282,19 +2282,19 @@
         <v>164313</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>140371</v>
+        <v>141331</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>190596</v>
+        <v>187095</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1988862177682674</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1699065799385198</v>
+        <v>0.1710687149704856</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2306988355600528</v>
+        <v>0.2264611727879993</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>255</v>
@@ -2303,19 +2303,19 @@
         <v>277516</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>248580</v>
+        <v>246099</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>307782</v>
+        <v>307078</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1729342991642584</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1549024960339026</v>
+        <v>0.1533566223136282</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1917941115089336</v>
+        <v>0.1913558250153485</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>665380</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>644532</v>
+        <v>643173</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>684476</v>
+        <v>683203</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8546037011226103</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8278270555465554</v>
+        <v>0.8260814716760024</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8791305674098958</v>
+        <v>0.8774954362341946</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>609</v>
@@ -2353,19 +2353,19 @@
         <v>661854</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>635571</v>
+        <v>639072</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>685796</v>
+        <v>684836</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8011137822317326</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7693011644399471</v>
+        <v>0.7735388272120006</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8300934200614801</v>
+        <v>0.8289312850295144</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1250</v>
@@ -2374,19 +2374,19 @@
         <v>1327234</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1296968</v>
+        <v>1297672</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1356170</v>
+        <v>1358651</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8270657008357416</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8082058884910666</v>
+        <v>0.8086441749846515</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8450975039660974</v>
+        <v>0.8466433776863719</v>
       </c>
     </row>
     <row r="27">
@@ -2478,19 +2478,19 @@
         <v>487606</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>447650</v>
+        <v>445730</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>532255</v>
+        <v>532083</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1436523148843321</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1318809573924168</v>
+        <v>0.1313151455894135</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1568060713198146</v>
+        <v>0.1567554798850076</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>617</v>
@@ -2499,19 +2499,19 @@
         <v>669261</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>620604</v>
+        <v>615537</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>716779</v>
+        <v>711598</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1888145754281552</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1750872298406281</v>
+        <v>0.1736576912159333</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2022206029643789</v>
+        <v>0.2007589133787732</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1077</v>
@@ -2520,19 +2520,19 @@
         <v>1156867</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1093150</v>
+        <v>1092592</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1225377</v>
+        <v>1221610</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1667222115442197</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1575395509821492</v>
+        <v>0.1574591936320326</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1765954239699091</v>
+        <v>0.1760526180127824</v>
       </c>
     </row>
     <row r="29">
@@ -2549,19 +2549,19 @@
         <v>2906744</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2862095</v>
+        <v>2862267</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2946700</v>
+        <v>2948620</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8563476851156679</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8431939286801854</v>
+        <v>0.8432445201149925</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8681190426075832</v>
+        <v>0.8686848544105865</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2721</v>
@@ -2570,19 +2570,19 @@
         <v>2875281</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2827763</v>
+        <v>2832944</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2923938</v>
+        <v>2929005</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8111854245718447</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7977793970356212</v>
+        <v>0.7992410866212268</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8249127701593719</v>
+        <v>0.8263423087840667</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5492</v>
@@ -2591,19 +2591,19 @@
         <v>5782025</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5713515</v>
+        <v>5717282</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5845742</v>
+        <v>5846300</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8332777884557803</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8234045760300909</v>
+        <v>0.8239473819872175</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8424604490178508</v>
+        <v>0.8425408063679675</v>
       </c>
     </row>
     <row r="30">
@@ -2939,19 +2939,19 @@
         <v>88891</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>74328</v>
+        <v>74465</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>105963</v>
+        <v>106600</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2787912621319524</v>
+        <v>0.2787912621319525</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2331157717495386</v>
+        <v>0.2335445311197274</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3323334434290406</v>
+        <v>0.3343321438060401</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>213</v>
@@ -2960,19 +2960,19 @@
         <v>119109</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>105989</v>
+        <v>105570</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>133410</v>
+        <v>132583</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3768542438271256</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3353426786972841</v>
+        <v>0.3340184645250652</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4221029361965018</v>
+        <v>0.4194855225803515</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>312</v>
@@ -2981,19 +2981,19 @@
         <v>208000</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>186999</v>
+        <v>185445</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>230346</v>
+        <v>230623</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3276077054374045</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2945296776507697</v>
+        <v>0.292082667811654</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3628037536396416</v>
+        <v>0.3632390898714511</v>
       </c>
     </row>
     <row r="5">
@@ -3010,19 +3010,19 @@
         <v>229954</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>212882</v>
+        <v>212245</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>244517</v>
+        <v>244380</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7212087378680475</v>
+        <v>0.7212087378680476</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6676665565709602</v>
+        <v>0.6656678561939599</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7668842282504617</v>
+        <v>0.7664554688802725</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>325</v>
@@ -3031,19 +3031,19 @@
         <v>196952</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>182651</v>
+        <v>183478</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>210072</v>
+        <v>210491</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6231457561728745</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5778970638034983</v>
+        <v>0.580514477419649</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6646573213027158</v>
+        <v>0.6659815354749359</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>557</v>
@@ -3052,19 +3052,19 @@
         <v>426906</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>404560</v>
+        <v>404283</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>447907</v>
+        <v>449461</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6723922945625955</v>
+        <v>0.6723922945625954</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.637196246360359</v>
+        <v>0.6367609101285493</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7054703223492303</v>
+        <v>0.7079173321883462</v>
       </c>
     </row>
     <row r="6">
@@ -3156,19 +3156,19 @@
         <v>58143</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43261</v>
+        <v>44394</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>75076</v>
+        <v>76481</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1095705484813845</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08152495790290359</v>
+        <v>0.08365983800280673</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1414805587286976</v>
+        <v>0.144127858780286</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>128</v>
@@ -3177,19 +3177,19 @@
         <v>92602</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77818</v>
+        <v>77600</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>109089</v>
+        <v>109721</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1702843641349879</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1430985521753994</v>
+        <v>0.1426968050496713</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.200602593138324</v>
+        <v>0.2017646933235329</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>178</v>
@@ -3198,19 +3198,19 @@
         <v>150745</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>127608</v>
+        <v>129690</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>174607</v>
+        <v>174066</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1402992693181095</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1187650146886353</v>
+        <v>0.1207033053467822</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1625074568775449</v>
+        <v>0.1620042079635663</v>
       </c>
     </row>
     <row r="8">
@@ -3227,19 +3227,19 @@
         <v>472504</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>455571</v>
+        <v>454166</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>487386</v>
+        <v>486253</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8904294515186154</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8585194412713019</v>
+        <v>0.8558721412197142</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9184750420970959</v>
+        <v>0.9163401619971934</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>585</v>
@@ -3248,19 +3248,19 @@
         <v>451205</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>434718</v>
+        <v>434086</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>465989</v>
+        <v>466207</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8297156358650121</v>
+        <v>0.829715635865012</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7993974068616767</v>
+        <v>0.798235306676467</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8569014478246006</v>
+        <v>0.8573031949503287</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>917</v>
@@ -3269,19 +3269,19 @@
         <v>923709</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>899847</v>
+        <v>900388</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>946846</v>
+        <v>944764</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8597007306818907</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.837492543122455</v>
+        <v>0.8379957920364339</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8812349853113647</v>
+        <v>0.879296694653218</v>
       </c>
     </row>
     <row r="9">
@@ -3373,19 +3373,19 @@
         <v>70411</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>58023</v>
+        <v>57857</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>83397</v>
+        <v>85870</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.222824566714789</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1836206434094498</v>
+        <v>0.1830954599124256</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2639202785179834</v>
+        <v>0.2717462085100946</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>148</v>
@@ -3394,19 +3394,19 @@
         <v>93625</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>79094</v>
+        <v>79848</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>107283</v>
+        <v>106622</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2627102723777391</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2219362453462031</v>
+        <v>0.2240522478956001</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3010356585856245</v>
+        <v>0.2991807138989312</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>236</v>
@@ -3415,19 +3415,19 @@
         <v>164036</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>144607</v>
+        <v>144757</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>183526</v>
+        <v>184168</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2439653380600555</v>
+        <v>0.2439653380600554</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2150697034414761</v>
+        <v>0.2152922741055581</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2729520222077136</v>
+        <v>0.2739060369176882</v>
       </c>
     </row>
     <row r="11">
@@ -3444,19 +3444,19 @@
         <v>245582</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>232596</v>
+        <v>230123</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>257970</v>
+        <v>258136</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7771754332852111</v>
+        <v>0.777175433285211</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7360797214820165</v>
+        <v>0.7282537914899053</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8163793565905503</v>
+        <v>0.8169045400875742</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>388</v>
@@ -3465,19 +3465,19 @@
         <v>262756</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>249098</v>
+        <v>249759</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>277287</v>
+        <v>276533</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.737289727622261</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6989643414143755</v>
+        <v>0.7008192861010689</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7780637546537972</v>
+        <v>0.7759477521044</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>660</v>
@@ -3486,19 +3486,19 @@
         <v>508339</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>488849</v>
+        <v>488207</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>527768</v>
+        <v>527618</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7560346619399447</v>
+        <v>0.7560346619399446</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7270479777922864</v>
+        <v>0.7260939630823118</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7849302965585238</v>
+        <v>0.7847077258944419</v>
       </c>
     </row>
     <row r="12">
@@ -3590,19 +3590,19 @@
         <v>53471</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38814</v>
+        <v>39634</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>70111</v>
+        <v>73087</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.143298963332684</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.104018497826338</v>
+        <v>0.1062153191113781</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.187893238692481</v>
+        <v>0.1958676672967562</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>103</v>
@@ -3611,19 +3611,19 @@
         <v>60671</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49559</v>
+        <v>49086</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74390</v>
+        <v>75591</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1437831621979191</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1174485263023453</v>
+        <v>0.1163293067251277</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1762970048975145</v>
+        <v>0.1791413538224864</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>155</v>
@@ -3632,19 +3632,19 @@
         <v>114142</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>96956</v>
+        <v>96935</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>139222</v>
+        <v>139303</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1435559266455311</v>
+        <v>0.143555926645531</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1219407821721728</v>
+        <v>0.121914933988171</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1750980538615317</v>
+        <v>0.1751997434034271</v>
       </c>
     </row>
     <row r="14">
@@ -3661,19 +3661,19 @@
         <v>319674</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>303034</v>
+        <v>300058</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>334331</v>
+        <v>333511</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8567010366673161</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8121067613075184</v>
+        <v>0.8041323327032434</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.895981502173662</v>
+        <v>0.8937846808886217</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>496</v>
@@ -3682,19 +3682,19 @@
         <v>361290</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>347571</v>
+        <v>346370</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>372402</v>
+        <v>372875</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.856216837802081</v>
+        <v>0.8562168378020811</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8237029951024858</v>
+        <v>0.8208586461775138</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8825514736976549</v>
+        <v>0.8836706932748722</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>736</v>
@@ -3703,19 +3703,19 @@
         <v>680965</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>655885</v>
+        <v>655804</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>698151</v>
+        <v>698172</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.856444073354469</v>
+        <v>0.8564440733544689</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8249019461384689</v>
+        <v>0.8248002565965727</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8780592178278275</v>
+        <v>0.8780850660118289</v>
       </c>
     </row>
     <row r="15">
@@ -3807,19 +3807,19 @@
         <v>24160</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16808</v>
+        <v>16134</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33832</v>
+        <v>33866</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1174706702780866</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08172332740917396</v>
+        <v>0.07844639567543836</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1645022893786667</v>
+        <v>0.164665940607404</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -3828,19 +3828,19 @@
         <v>12588</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8608</v>
+        <v>8816</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17135</v>
+        <v>17602</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.05540237081126303</v>
+        <v>0.05540237081126301</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03788302811882512</v>
+        <v>0.03879978169268605</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07541460083385138</v>
+        <v>0.07746916431246552</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>64</v>
@@ -3849,19 +3849,19 @@
         <v>36748</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27589</v>
+        <v>28066</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>47665</v>
+        <v>48866</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08489155174241479</v>
+        <v>0.08489155174241478</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06373320984420761</v>
+        <v>0.06483507810606833</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.11011111834872</v>
+        <v>0.1128853804453672</v>
       </c>
     </row>
     <row r="17">
@@ -3878,19 +3878,19 @@
         <v>181505</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>171833</v>
+        <v>171799</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>188857</v>
+        <v>189531</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8825293297219134</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8354977106213334</v>
+        <v>0.8353340593925962</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9182766725908259</v>
+        <v>0.9215536043245618</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>460</v>
@@ -3899,19 +3899,19 @@
         <v>214627</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>210080</v>
+        <v>209613</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>218607</v>
+        <v>218399</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9445976291887371</v>
+        <v>0.9445976291887369</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9245853991661486</v>
+        <v>0.9225308356875344</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.962116971881175</v>
+        <v>0.9612002183073136</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>707</v>
@@ -3920,19 +3920,19 @@
         <v>396131</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>385214</v>
+        <v>384013</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>405290</v>
+        <v>404813</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9151084482575852</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8898888816512801</v>
+        <v>0.8871146195546328</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9362667901557925</v>
+        <v>0.9351649218939319</v>
       </c>
     </row>
     <row r="18">
@@ -4024,19 +4024,19 @@
         <v>45699</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>35780</v>
+        <v>35867</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>57275</v>
+        <v>57689</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1688135148196541</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1321715492605703</v>
+        <v>0.1324929039288829</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2115768543051681</v>
+        <v>0.213106581335907</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>102</v>
@@ -4045,19 +4045,19 @@
         <v>52030</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42754</v>
+        <v>42663</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>62378</v>
+        <v>62817</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1972707488609066</v>
+        <v>0.1972707488609065</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1620995537417937</v>
+        <v>0.1617547517818395</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2365054412996215</v>
+        <v>0.2381673070105378</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>168</v>
@@ -4066,19 +4066,19 @@
         <v>97729</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>83683</v>
+        <v>83694</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>111745</v>
+        <v>113166</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1828569270625268</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.156576646966824</v>
+        <v>0.1565968694419503</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2090806890928319</v>
+        <v>0.2117397658971367</v>
       </c>
     </row>
     <row r="20">
@@ -4095,19 +4095,19 @@
         <v>225008</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>213432</v>
+        <v>213018</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>234927</v>
+        <v>234840</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.831186485180346</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7884231456948321</v>
+        <v>0.7868934186640929</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8678284507394299</v>
+        <v>0.8675070960711172</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>358</v>
@@ -4116,19 +4116,19 @@
         <v>211720</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>201372</v>
+        <v>200933</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>220996</v>
+        <v>221087</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8027292511390935</v>
+        <v>0.8027292511390933</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7634945587003785</v>
+        <v>0.7618326929894622</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.837900446258206</v>
+        <v>0.8382452482181604</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>663</v>
@@ -4137,19 +4137,19 @@
         <v>436728</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>422712</v>
+        <v>421291</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>450774</v>
+        <v>450763</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8171430729374731</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7909193109071678</v>
+        <v>0.7882602341028635</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8434233530331758</v>
+        <v>0.8434031305580497</v>
       </c>
     </row>
     <row r="21">
@@ -4241,19 +4241,19 @@
         <v>144544</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>122711</v>
+        <v>122169</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>172125</v>
+        <v>171841</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2013100029793116</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1709021953891979</v>
+        <v>0.1701476123061145</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2397236742239347</v>
+        <v>0.239327099804721</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>270</v>
@@ -4262,19 +4262,19 @@
         <v>207813</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>183121</v>
+        <v>186837</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>230065</v>
+        <v>233199</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2691681495155833</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2371856261099398</v>
+        <v>0.2419984613947354</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2979900188858767</v>
+        <v>0.3020489696860281</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>398</v>
@@ -4283,19 +4283,19 @@
         <v>352357</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>317502</v>
+        <v>319997</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>383918</v>
+        <v>387318</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2364695848769496</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.213078172632017</v>
+        <v>0.2147522744856122</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2576507838545584</v>
+        <v>0.2599324820152618</v>
       </c>
     </row>
     <row r="23">
@@ -4312,19 +4312,19 @@
         <v>573472</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>545891</v>
+        <v>546175</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>595305</v>
+        <v>595847</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7986899970206884</v>
+        <v>0.7986899970206883</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7602763257760653</v>
+        <v>0.7606729001952786</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8290978046108022</v>
+        <v>0.8298523876938856</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>690</v>
@@ -4333,19 +4333,19 @@
         <v>564244</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>541992</v>
+        <v>538858</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>588936</v>
+        <v>585220</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7308318504844166</v>
+        <v>0.7308318504844167</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7020099811141235</v>
+        <v>0.6979510303139722</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7628143738900602</v>
+        <v>0.7580015386052645</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1159</v>
@@ -4354,19 +4354,19 @@
         <v>1137716</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1106155</v>
+        <v>1102755</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1172571</v>
+        <v>1170076</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7635304151230504</v>
+        <v>0.7635304151230502</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7423492161454414</v>
+        <v>0.7400675179847384</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7869218273679828</v>
+        <v>0.7852477255143875</v>
       </c>
     </row>
     <row r="24">
@@ -4458,19 +4458,19 @@
         <v>48714</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>34701</v>
+        <v>35481</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>64669</v>
+        <v>63452</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06103984825738643</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04348143406420604</v>
+        <v>0.04445780674096351</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08103185290144652</v>
+        <v>0.07950651653589925</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>84</v>
@@ -4479,19 +4479,19 @@
         <v>61294</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>49645</v>
+        <v>49339</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>76434</v>
+        <v>74656</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07378655453023661</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05976260565136811</v>
+        <v>0.05939513958732317</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09201184014212301</v>
+        <v>0.08987084688697036</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>131</v>
@@ -4500,19 +4500,19 @@
         <v>110009</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>92691</v>
+        <v>92394</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>129284</v>
+        <v>129631</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06754086769800201</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05690880938196042</v>
+        <v>0.05672622436753001</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0793750961354945</v>
+        <v>0.07958848479175085</v>
       </c>
     </row>
     <row r="26">
@@ -4529,19 +4529,19 @@
         <v>749358</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>733403</v>
+        <v>734620</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>763371</v>
+        <v>762591</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9389601517426136</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9189681470985533</v>
+        <v>0.9204934834641006</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.956518565935794</v>
+        <v>0.9555421932590364</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>977</v>
@@ -4550,19 +4550,19 @@
         <v>769404</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>754264</v>
+        <v>756042</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>781053</v>
+        <v>781359</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9262134454697634</v>
+        <v>0.9262134454697635</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.907988159857877</v>
+        <v>0.9101291531130296</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.940237394348632</v>
+        <v>0.9406048604126768</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1692</v>
@@ -4571,19 +4571,19 @@
         <v>1518761</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1499486</v>
+        <v>1499139</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1536079</v>
+        <v>1536376</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9324591323019981</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9206249038645056</v>
+        <v>0.920411515208249</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9430911906180397</v>
+        <v>0.9432737756324699</v>
       </c>
     </row>
     <row r="27">
@@ -4675,19 +4675,19 @@
         <v>534034</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>485273</v>
+        <v>491282</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>575699</v>
+        <v>584539</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1512375779975038</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1374287181363199</v>
+        <v>0.1391304719102425</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.163037165228758</v>
+        <v>0.1655407508346795</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1080</v>
@@ -4696,19 +4696,19 @@
         <v>699733</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>664031</v>
+        <v>656126</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>743419</v>
+        <v>739887</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1874988219737451</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.17793233463147</v>
+        <v>0.1758141308863386</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1992049447352268</v>
+        <v>0.1982585426646914</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1642</v>
@@ -4717,19 +4717,19 @@
         <v>1233766</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1175559</v>
+        <v>1168773</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1296057</v>
+        <v>1297105</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1698695543420787</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1618553402134795</v>
+        <v>0.1609210049243604</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1784459698150788</v>
+        <v>0.1785903025396678</v>
       </c>
     </row>
     <row r="29">
@@ -4746,19 +4746,19 @@
         <v>2997057</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2955392</v>
+        <v>2946552</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3045818</v>
+        <v>3039809</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8487624220024961</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8369628347712421</v>
+        <v>0.8344592491653199</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.86257128186368</v>
+        <v>0.8608695280897574</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4279</v>
@@ -4767,19 +4767,19 @@
         <v>3032198</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2988512</v>
+        <v>2992044</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3067900</v>
+        <v>3075805</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8125011780262549</v>
+        <v>0.812501178026255</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8007950552647733</v>
+        <v>0.8017414573353085</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8220676653685302</v>
+        <v>0.8241858691136615</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7091</v>
@@ -4788,19 +4788,19 @@
         <v>6029256</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5966965</v>
+        <v>5965917</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6087463</v>
+        <v>6094249</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8301304456579213</v>
+        <v>0.8301304456579214</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8215540301849211</v>
+        <v>0.8214096974603321</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8381446597865205</v>
+        <v>0.8390789950756395</v>
       </c>
     </row>
     <row r="30">
